--- a/3.요구사항 정의서/4조_1팀_요구사항 명세서_ver_0.2.xlsx
+++ b/3.요구사항 정의서/4조_1팀_요구사항 명세서_ver_0.2.xlsx
@@ -631,7 +631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -682,6 +682,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -739,7 +745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -771,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1187,8 +1196,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1199,8 +1208,8 @@
     <col min="4" max="4" width="179.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B1" s="11"/>
